--- a/Data_preparation/datasets/final_data/VERISK_ANALYTICS_INC.xlsx
+++ b/Data_preparation/datasets/final_data/VERISK_ANALYTICS_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,117 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
 </sst>
 </file>
@@ -763,22 +652,22 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>19.17000007629395</v>
+        <v>68.39171792802742</v>
       </c>
       <c r="E2">
-        <v>19.46999931335449</v>
+        <v>71.8682861328125</v>
       </c>
       <c r="F2">
-        <v>21.10000038146973</v>
+        <v>74.78936743670167</v>
       </c>
       <c r="G2">
-        <v>18.63999938964844</v>
+        <v>67.98946450952722</v>
       </c>
       <c r="H2">
-        <v>55686229</v>
+        <v>139714971</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>11288943687</v>
@@ -891,22 +780,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>135.1841268565159</v>
+        <v>70.02944661163185</v>
       </c>
       <c r="E3">
-        <v>146.5059204101562</v>
+        <v>74.80853271484375</v>
       </c>
       <c r="F3">
-        <v>149.4612783851101</v>
+        <v>76.50371707975654</v>
       </c>
       <c r="G3">
-        <v>133.8800511327204</v>
+        <v>68.84185231157937</v>
       </c>
       <c r="H3">
-        <v>143182982</v>
+        <v>139714971</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>11529978520</v>
@@ -1019,22 +908,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>20.73999977111816</v>
+        <v>74.71276876524381</v>
       </c>
       <c r="E4">
-        <v>22.21999931335449</v>
+        <v>68.58327484130859</v>
       </c>
       <c r="F4">
-        <v>23.29999923706055</v>
+        <v>78.53412217642621</v>
       </c>
       <c r="G4">
-        <v>20.07999992370605</v>
+        <v>66.74442885620535</v>
       </c>
       <c r="H4">
-        <v>272490000</v>
+        <v>139714971</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>12452854953</v>
@@ -1147,22 +1036,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>72.17477896840994</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>69.91452789306641</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>72.38548145445593</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>66.17936672232582</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>139714971</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>13025651702</v>
@@ -1275,22 +1164,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>21.06878244070543</v>
+        <v>76.27386163751362</v>
       </c>
       <c r="E6">
-        <v>18.4537239074707</v>
+        <v>74.30093383789062</v>
       </c>
       <c r="F6">
-        <v>21.22490591599555</v>
+        <v>78.14143821415446</v>
       </c>
       <c r="G6">
-        <v>18.25076398515507</v>
+        <v>73.51559300733864</v>
       </c>
       <c r="H6">
-        <v>199618386</v>
+        <v>139714971</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>13429314283</v>
@@ -1403,22 +1292,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>96.04321029982444</v>
+        <v>77.65299279842692</v>
       </c>
       <c r="E7">
-        <v>95.93419647216795</v>
+        <v>81.67546844482422</v>
       </c>
       <c r="F7">
-        <v>101.2592138942743</v>
+        <v>82.36503736864613</v>
       </c>
       <c r="G7">
-        <v>92.99075914643778</v>
+        <v>77.17412630209759</v>
       </c>
       <c r="H7">
-        <v>112434397</v>
+        <v>139714971</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>13634929361</v>
@@ -1531,22 +1420,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>10.08891169552178</v>
+        <v>77.50932188335969</v>
       </c>
       <c r="E8">
-        <v>10.03531837463379</v>
+        <v>78.10311889648438</v>
       </c>
       <c r="F8">
-        <v>10.24075858308116</v>
+        <v>79.0991546566158</v>
       </c>
       <c r="G8">
-        <v>9.423462821204105</v>
+        <v>75.27780253044941</v>
       </c>
       <c r="H8">
-        <v>1319450062</v>
+        <v>139714971</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>13733899400</v>
@@ -1659,22 +1548,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>78.14141891593357</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>79.14704132080078</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>79.51097716954463</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>76.81017085275688</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>139714971</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>13591994829</v>
@@ -1787,22 +1676,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>5.311937668057123</v>
+        <v>77.63386497167446</v>
       </c>
       <c r="E10">
-        <v>5.160849571228027</v>
+        <v>79.30989837646484</v>
       </c>
       <c r="F10">
-        <v>5.327841658292762</v>
+        <v>80.15270842216336</v>
       </c>
       <c r="G10">
-        <v>4.930241523220734</v>
+        <v>75.36404155133368</v>
       </c>
       <c r="H10">
-        <v>3071530678</v>
+        <v>139714971</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>13496934380</v>
@@ -1915,22 +1804,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>70.19999694824219</v>
+        <v>81.28282591208909</v>
       </c>
       <c r="E11">
-        <v>61.70000076293945</v>
+        <v>83.57180786132812</v>
       </c>
       <c r="F11">
-        <v>77.92500305175781</v>
+        <v>84.28052844091499</v>
       </c>
       <c r="G11">
-        <v>61</v>
+        <v>79.43440039377839</v>
       </c>
       <c r="H11">
-        <v>55686229</v>
+        <v>139714971</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>13949731750</v>
@@ -2043,22 +1932,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>34.39338093652559</v>
+        <v>79.87495413761141</v>
       </c>
       <c r="E12">
-        <v>33.61638259887695</v>
+        <v>81.45521545410156</v>
       </c>
       <c r="F12">
-        <v>35.08107037354011</v>
+        <v>81.80957207851147</v>
       </c>
       <c r="G12">
-        <v>32.32138309818511</v>
+        <v>79.50143875641325</v>
       </c>
       <c r="H12">
-        <v>457000000</v>
+        <v>139714971</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>13689398499</v>
@@ -2171,22 +2060,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>92.4020833516721</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>95.82118988037109</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>96.29047700593917</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>91.23364791881356</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>139714971</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>15810423552</v>
@@ -2299,22 +2188,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>35.97240561616163</v>
+        <v>98.9433948983168</v>
       </c>
       <c r="E14">
-        <v>31.91368293762207</v>
+        <v>101.9506759643555</v>
       </c>
       <c r="F14">
-        <v>36.75260893317965</v>
+        <v>103.9906519515384</v>
       </c>
       <c r="G14">
-        <v>31.53188151649943</v>
+        <v>96.07977524512415</v>
       </c>
       <c r="H14">
-        <v>5186523104</v>
+        <v>139714971</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>17162139488</v>
@@ -2427,22 +2316,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>22.36372947692871</v>
+        <v>102.4678593897214</v>
       </c>
       <c r="E15">
-        <v>22.87315368652344</v>
+        <v>105.9444351196289</v>
       </c>
       <c r="F15">
-        <v>25.01273536682129</v>
+        <v>110.2350751929238</v>
       </c>
       <c r="G15">
-        <v>22.00713157653809</v>
+        <v>102.0464618064929</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>139714971</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>17788500073</v>
@@ -2555,22 +2444,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>116.3837419163118</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>114.7747497558594</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>116.805146886669</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>106.8064093676483</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>139714971</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>19855598946</v>
@@ -2683,22 +2572,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>102.5253191452748</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>112.4474334716797</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>113.4722074751345</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>100.4853432072474</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>139714971</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>17950180175</v>
@@ -2811,22 +2700,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>128.2692524920409</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>135.4374389648438</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>135.5909779071337</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>127.3576388158984</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>139714971</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>21746767490</v>
@@ -2939,22 +2828,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>141.8024910440722</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>145.8397064208984</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>147.8583214430095</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>140.8604628778093</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>139714971</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>23970471392</v>
@@ -3067,22 +2956,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>152.4392708363372</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>139.3163757324219</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>153.6331414295598</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>138.9505237742231</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>139714971</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>25856848487</v>
@@ -3195,22 +3084,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>143.9711234500206</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>156.6920471191406</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>160.0482830421848</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>143.6046327590882</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>139714971</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>24472320562</v>
@@ -3323,22 +3212,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>129.6775533413751</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>147.6577301025391</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>154.5754156067351</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>128.9819193385855</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>139714971</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>22729525493</v>
@@ -3451,22 +3340,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>163.7744820752355</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>182.6265106201172</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>182.6652146317478</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>163.0486600303411</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>139714971</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>27616500692</v>
@@ -3579,22 +3468,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>180.0101331161973</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>172.4891204833984</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>189.0915785147856</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>169.4361358623619</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>139714971</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>30091732797</v>
@@ -3707,22 +3596,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>201.4870052026782</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>178.0966491699219</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>203.49604417086</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>177.1455104490742</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>139714971</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>33752015959</v>
@@ -3835,22 +3724,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>529.9299926757812</v>
+        <v>172.047045920862</v>
       </c>
       <c r="E26">
-        <v>513.469970703125</v>
+        <v>182.9646453857422</v>
       </c>
       <c r="F26">
-        <v>563.5599975585938</v>
+        <v>184.5104111713112</v>
       </c>
       <c r="G26">
-        <v>499</v>
+        <v>171.8428811782775</v>
       </c>
       <c r="H26">
-        <v>424926346</v>
+        <v>139714971</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>28763644800</v>
@@ -3963,22 +3852,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>46.47724219552952</v>
+        <v>170.9446979728797</v>
       </c>
       <c r="E27">
-        <v>48.50979995727539</v>
+        <v>184.9677429199219</v>
       </c>
       <c r="F27">
-        <v>48.75511095753174</v>
+        <v>185.2501447463326</v>
       </c>
       <c r="G27">
-        <v>45.85521015250949</v>
+        <v>170.623349806715</v>
       </c>
       <c r="H27">
-        <v>3953196953</v>
+        <v>139714971</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>28320575512</v>
@@ -4091,22 +3980,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>138.916410444292</v>
+        <v>196.58108583235</v>
       </c>
       <c r="E28">
-        <v>146.6503143310547</v>
+        <v>205.0555877685547</v>
       </c>
       <c r="F28">
-        <v>149.9494520691154</v>
+        <v>210.6337405650339</v>
       </c>
       <c r="G28">
-        <v>135.3627448332334</v>
+        <v>192.1634249991105</v>
       </c>
       <c r="H28">
-        <v>14840390000</v>
+        <v>139714971</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>32313658427</v>
@@ -4219,22 +4108,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>222.2959310422345</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>191.5088348388672</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>222.5205076633652</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>181.2171675499394</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>139714971</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>36862441304</v>
@@ -4347,22 +4236,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>151.2200012207031</v>
+        <v>210.8498366228578</v>
       </c>
       <c r="E30">
-        <v>119.3099975585938</v>
+        <v>199.5820770263672</v>
       </c>
       <c r="F30">
-        <v>161.6100006103516</v>
+        <v>217.2466287045212</v>
       </c>
       <c r="G30">
-        <v>118.879997253418</v>
+        <v>199.0832345524401</v>
       </c>
       <c r="H30">
-        <v>168459019</v>
+        <v>139714971</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>34616157841</v>
@@ -4475,22 +4364,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>3.200000047683716</v>
+        <v>169.292055488416</v>
       </c>
       <c r="E31">
-        <v>3.930000066757202</v>
+        <v>186.4417572021484</v>
       </c>
       <c r="F31">
-        <v>4.539999961853027</v>
+        <v>187.1375516797238</v>
       </c>
       <c r="G31">
-        <v>3.109999895095825</v>
+        <v>167.7142823326185</v>
       </c>
       <c r="H31">
-        <v>448228270</v>
+        <v>139714971</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>27331255795</v>
@@ -4603,22 +4492,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>254.5</v>
+        <v>168.6417624693048</v>
       </c>
       <c r="E32">
-        <v>227.5399932861328</v>
+        <v>179.468994140625</v>
       </c>
       <c r="F32">
-        <v>257.5</v>
+        <v>183.4249084876406</v>
       </c>
       <c r="G32">
-        <v>198.5899963378907</v>
+        <v>160.6317661078988</v>
       </c>
       <c r="H32">
-        <v>3325150886</v>
+        <v>139714971</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>26766381126</v>
@@ -4731,22 +4620,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>174.4315662213555</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>178.7481079101562</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>184.2839061250982</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>173.0746679137486</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>139714971</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>27589962139</v>
@@ -4859,22 +4748,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>261.1884929516806</v>
+        <v>187.4088207450072</v>
       </c>
       <c r="E34">
-        <v>225.4617156982422</v>
+        <v>191.2212219238281</v>
       </c>
       <c r="F34">
-        <v>262.5264343168398</v>
+        <v>194.6001688538694</v>
       </c>
       <c r="G34">
-        <v>223.9783523558658</v>
+        <v>184.1776354762748</v>
       </c>
       <c r="H34">
-        <v>60498713</v>
+        <v>139714971</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>29679944246</v>
@@ -4987,22 +4876,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>18.42000007629395</v>
+        <v>221.2492693216344</v>
       </c>
       <c r="E35">
-        <v>19.04000091552734</v>
+        <v>225.8865814208984</v>
       </c>
       <c r="F35">
-        <v>19.38999938964844</v>
+        <v>235.6348145981541</v>
       </c>
       <c r="G35">
-        <v>17.57999992370605</v>
+        <v>217.7367371448296</v>
       </c>
       <c r="H35">
-        <v>260676335</v>
+        <v>139714971</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>32727149963</v>
@@ -5115,22 +5004,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>62.6169871617784</v>
+        <v>232.4935291129258</v>
       </c>
       <c r="E36">
-        <v>64.67326354980469</v>
+        <v>224.638687133789</v>
       </c>
       <c r="F36">
-        <v>66.63478202323152</v>
+        <v>246.0196734084931</v>
       </c>
       <c r="G36">
-        <v>60.75970456328059</v>
+        <v>219.2341573592451</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>139714971</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>34261196907</v>
@@ -5243,22 +5132,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>235.2971086767513</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>238.9677429199219</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>245.0821906275168</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>227.0950441680811</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>139714971</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>34631489244</v>
@@ -5371,22 +5260,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>233.317600803873</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>216.0043640136719</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>233.317600803873</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>215.3899166709513</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>139714971</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>33801297355</v>
@@ -5499,22 +5388,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>267.5293270643612</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>259.7878112792969</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>284.9775569097218</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>258.1700256025808</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>139714971</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>38458110133</v>
@@ -5627,22 +5516,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>267.6587773312833</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>273.0558776855469</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>278.3038927352457</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>259.548203103073</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>139714971</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>38163885735</v>
@@ -5755,22 +5644,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>274.6837698904532</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>286.0899353027344</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>288.498551877741</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>264.9397437025851</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>139714971</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>38893644923</v>
@@ -5883,22 +5772,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>295.8857963941511</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>295.4970092773437</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>305.7147484398095</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>272.8983778438283</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>139714971</v>
       </c>
       <c r="I42" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>41748992227</v>
@@ -6011,22 +5900,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>310.8056629826289</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>278.2316589355469</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>314.2597162708633</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>269.8959834250493</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>139714971</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>43573889986</v>
